--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F3913-0AA2-4003-A4D4-3A2E08AB58C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BC192-4ADA-4B0B-B785-60C077FF77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>JIVI Site</t>
   </si>
   <si>
-    <t>JIVI Application</t>
-  </si>
-  <si>
     <t>https://www.jiviews.com/DEMO/Home</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>JIVI Application DEMO</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1122,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>72</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BC192-4ADA-4B0B-B785-60C077FF77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD906369-41A1-40B9-8AFE-666BB44061E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ford\Frameworks\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD906369-41A1-40B9-8AFE-666BB44061E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A7C2A-0FEA-4FEA-AE36-74F42BF3E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigSheet" sheetId="1" r:id="rId1"/>

--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ford\Frameworks\Automation_SourceTree\src\test\resources\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A7C2A-0FEA-4FEA-AE36-74F42BF3E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87307156-E637-4473-A2EA-D00A5061EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigSheet" sheetId="1" r:id="rId1"/>
@@ -930,9 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87307156-E637-4473-A2EA-D00A5061EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997F85B-F47E-4A93-8B1F-10540CF24925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -648,9 +648,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,26 +683,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,26 +718,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -930,7 +896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="8">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/configuration/Config_Data.xlsx
+++ b/src/test/resources/configuration/Config_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_SourceTree\src\test\resources\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997F85B-F47E-4A93-8B1F-10540CF24925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D3E65-7474-4AB5-9A5C-00537EAFAC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>ConfigurationValue</t>
   </si>
@@ -91,9 +91,6 @@
     <t>implicitWait</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>TestDataPath</t>
   </si>
   <si>
@@ -317,6 +314,12 @@
   </si>
   <si>
     <t>JIVI Application DEMO</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>v 4.22.0.149</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -922,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -940,19 +943,19 @@
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>13</v>
@@ -972,22 +975,22 @@
         <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
         <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.25">
@@ -995,13 +998,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -1013,68 +1016,68 @@
         <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
         <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13" x14ac:dyDescent="0.25">
@@ -1082,25 +1085,25 @@
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7"/>
       <c r="M7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1108,21 +1111,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1130,12 +1133,12 @@
         <v>22</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8">
         <v>40</v>
@@ -1151,31 +1154,31 @@
     </row>
     <row r="13" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="27"/>
       <c r="I16" s="14"/>
@@ -1185,44 +1188,44 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="18"/>
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="20"/>
     </row>
@@ -1234,25 +1237,25 @@
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:9" ht="13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="22"/>
     </row>
@@ -1261,136 +1264,136 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:9" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="19" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:2" ht="13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="30"/>
     </row>
